--- a/Queue Items.xlsx
+++ b/Queue Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkeenan\Documents\UiPath\Sign-Up-Tracker-REFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkeenan\Documents\UiPath\McD-Monthly-Reports-Dispatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4EF58E-A28B-4BA2-B9BC-A6580F1F08CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E4471C-57B9-4A1F-8D32-FC3689B7FD14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-26850" yWindow="2550" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="1" xr2:uid="{6673B8BC-EC00-4F51-866C-43FF4356FCAA}"/>
+    <x:workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" firstSheet="0" activeTab="1" xr2:uid="{6673B8BC-EC00-4F51-866C-43FF4356FCAA}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
     <x:t>GA6288 - Fan 10894 LLC</x:t>
   </x:si>
   <x:si>
-    <x:t>04/01/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04/30/2021</x:t>
+    <x:t>05/01/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/31/2021</x:t>
   </x:si>
   <x:si>
     <x:t>GA6288 - Payroll Summary</x:t>
@@ -5261,10 +5261,10 @@
     <x:t>GA4185 - Check Register Detail</x:t>
   </x:si>
   <x:si>
-    <x:t>05/01/2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/31/2021</x:t>
+    <x:t>06/01/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/30/2021</x:t>
   </x:si>
   <x:si>
     <x:t>GA6288 - Accrued Labor Distribution Summary</x:t>
